--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_17-41.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_17-41.xlsx
@@ -119,6 +119,9 @@
     <t>DELTARHINO NASAL SPRAY 15 ML</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
   </si>
   <si>
@@ -168,9 +171,6 @@
   </si>
   <si>
     <t>5:0</t>
-  </si>
-  <si>
-    <t>2:0</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
@@ -1326,7 +1326,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1344,7 +1344,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1352,7 +1352,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -1370,7 +1370,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1396,7 +1396,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1422,7 +1422,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1448,7 +1448,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1474,7 +1474,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1482,7 +1482,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1500,7 +1500,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1526,7 +1526,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1552,7 +1552,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1560,7 +1560,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -1578,7 +1578,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1586,7 +1586,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1604,7 +1604,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1612,7 +1612,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1820,7 +1820,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -1950,7 +1950,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
